--- a/biology/Médecine/Syndrome_de_Miller-Fisher/Syndrome_de_Miller-Fisher.xlsx
+++ b/biology/Médecine/Syndrome_de_Miller-Fisher/Syndrome_de_Miller-Fisher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Miller-Fisher est une maladie rare du système nerveux périphérique qui affecte particulièrement les nerfs crâniens et porte le nom du neurologue canadien Charles Miller Fisher.
 </t>
@@ -511,15 +523,17 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Miller-Fisher ou syndrome de Fisher ou SMF, est une variante du syndrome de Guillain-Barré, caractérisée par :
 un manque de coordination des mouvements volontaires (ataxie) ;
 une absence de réflexes (aréflexie) ;
-une paralysie des muscles moteurs des yeux (ophtalmoplégie) entrainant principalement une vision double (diplopie)[1].
-Il a été décrit en 1955 par le neurologue canadien Charles Miller Fisher[2]. L'évolution est, en règle générale, favorable et sans séquelle[3]. Dans la plupart des cas, le rétablissement commence 2 à 4 semaines après le début des symptômes, et est pratiquement complète dans les 6 mois. Cependant certains individus peuvent conserver des déficits résiduels et dans moins de 3 % des cas il y a un risque de rechute [4].
-Il semble être plus fréquent au Japon et à Taiwan[5].
-Le traitement est essentiellement symptomatique, l'administration d'immunoglobulines ou la mise sous échange plasmatique ne semblant pas influencer l'évolution[6] (contrairement au syndrome de Guillain-Barré).
+une paralysie des muscles moteurs des yeux (ophtalmoplégie) entrainant principalement une vision double (diplopie).
+Il a été décrit en 1955 par le neurologue canadien Charles Miller Fisher. L'évolution est, en règle générale, favorable et sans séquelle. Dans la plupart des cas, le rétablissement commence 2 à 4 semaines après le début des symptômes, et est pratiquement complète dans les 6 mois. Cependant certains individus peuvent conserver des déficits résiduels et dans moins de 3 % des cas il y a un risque de rechute .
+Il semble être plus fréquent au Japon et à Taiwan.
+Le traitement est essentiellement symptomatique, l'administration d'immunoglobulines ou la mise sous échange plasmatique ne semblant pas influencer l'évolution (contrairement au syndrome de Guillain-Barré).
 </t>
         </is>
       </c>
